--- a/results/results_corelation_graphs.xlsx
+++ b/results/results_corelation_graphs.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDF5B7-3A9C-4356-9B8B-AC7E9E00027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D69F67-D1BA-4C0A-A23B-259466CB1FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
   <sheets>
-    <sheet name="SVR" sheetId="1" r:id="rId1"/>
-    <sheet name="RF" sheetId="2" r:id="rId2"/>
+    <sheet name="RF" sheetId="2" r:id="rId1"/>
+    <sheet name="SVR" sheetId="1" r:id="rId2"/>
     <sheet name="NN" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="NN_results" localSheetId="2">NN!$A$1:$G$23</definedName>
-    <definedName name="RF_corelation_results" localSheetId="1">RF!$P$18:$V$38</definedName>
-    <definedName name="RF_results" localSheetId="1">RF!$A$1:$G$23</definedName>
-    <definedName name="SVR_corelation_results_1" localSheetId="0">SVR!$O$2:$U$22</definedName>
-    <definedName name="SVR_results" localSheetId="0">SVR!$A$1:$G$23</definedName>
+    <definedName name="RF_corelation_results" localSheetId="0">RF!$P$18:$V$38</definedName>
+    <definedName name="RF_results" localSheetId="0">RF!$A$1:$G$23</definedName>
+    <definedName name="SVR_corelation_results_1" localSheetId="1">SVR!$O$2:$U$22</definedName>
+    <definedName name="SVR_results" localSheetId="1">SVR!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -179,7 +180,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +199,2131 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>RF arousal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8649999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5589999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4909999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.471E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4040000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3959999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4080000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4150000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.403E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3880000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16864999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16561000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16572999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16550999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.39885999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43679000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44590999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45712000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45789000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45613999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45841999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.40175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43874999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44761000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45074999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45946999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46056000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45906000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45924999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46068999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.66683999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67151000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65612000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64420999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65078000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64532999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64483999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66063000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1197365199"/>
+        <c:axId val="1197368527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1197365199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197368527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197368527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197365199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>RF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" baseline="0"/>
+              <a:t> Valence</a:t>
+            </a:r>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$A$14:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.317E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1590000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9730000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9849999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9210000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9129999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9260000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8859999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8949999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$B$14:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16675999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16234000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15917000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15926999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15865000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15773999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.37286999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39739000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42065000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42003000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43021999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43468000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$D$14:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.37496000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43181000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43307000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43734000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43685000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$E$14:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59223999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58450999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57172999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58557999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58579000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57611000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57645999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57167000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56323999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1197365199"/>
+        <c:axId val="1197368527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1197365199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197368527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197368527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197365199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1262,7 +3388,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2198,2131 +4324,6 @@
       </c:ext>
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>RF arousal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.8649999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5589999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4909999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.471E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4040000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3959999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4080000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4150000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.403E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.3880000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.17501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16864999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16705</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16561000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16572999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16600999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16596</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16550999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.39885999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43679000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44590999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44879999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45712000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.45789000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45613999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45521</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.45841999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EVS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.40175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43874999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44761000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45074999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45946999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.46056000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45906000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45795000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45924999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46068999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MXE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.66683999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66152</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65234999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67151000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65612000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64420999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65078000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64532999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64483999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66063000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1197365199"/>
-        <c:axId val="1197368527"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1197365199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
-                  <a:t>Number of features</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sl-SI"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1197368527"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1197368527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.75000000000000011"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1197365199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>RF</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> Valence</a:t>
-            </a:r>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$A$14:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.317E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1590000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9730000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9849999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9210000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9129999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9260000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8859999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8949999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$B$14:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.16675999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16234000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15917000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15926999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15816</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15825</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15865000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15773999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15858</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$C$14:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.37286999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39739000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42065000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42003000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42904999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43021999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.42857000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43468000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.434</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EVS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$D$14:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.37496000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42277999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43181000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43307000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43132999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43734000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.43685000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$E$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MXE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$E$14:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.59223999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58450999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.57172999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58557999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58579000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57611000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57645999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57167000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57847999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.56323999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1197365199"/>
-        <c:axId val="1197368527"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1197365199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
-                  <a:t>Number of features</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sl-SI"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1197368527"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1197368527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.75000000000000011"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1197365199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9827,6 +9828,83 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>37955</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>442606</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106939</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FA0229-588F-418D-AB1C-45A3FAD60735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29152</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>433803</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20204</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217521AD-6EA4-4B76-A401-3B10A3DCDF1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>31751</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
@@ -9879,83 +9957,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ED05F0-8C62-4E63-A9B9-5F370721A7FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37955</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30739</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>442606</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106939</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FA0229-588F-418D-AB1C-45A3FAD60735}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>29152</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>134504</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>433803</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>20204</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217521AD-6EA4-4B76-A401-3B10A3DCDF1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10056,19 +10057,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_corelation_results_1" connectionId="4" xr16:uid="{01E9DD8F-D4F6-4B6D-8FB8-15917133C0FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_corelation_results" connectionId="2" xr16:uid="{2958A287-3020-41A0-B009-62E156379B8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="3" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="5" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_corelation_results" connectionId="2" xr16:uid="{2958A287-3020-41A0-B009-62E156379B8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="3" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_corelation_results_1" connectionId="4" xr16:uid="{01E9DD8F-D4F6-4B6D-8FB8-15917133C0FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11515,537 +11516,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863D7C3-7A4F-4420-AEEB-0842CB319AF9}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4.9840000000000002E-2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.17530000000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.38518000000000002</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.38793</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.67810999999999999</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.9959999999999997E-2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.17544999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.38390000000000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.38663999999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.67857999999999996</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>5.006E-2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.17555999999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.38257999999999998</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.38541999999999998</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.68013000000000001</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5.0070000000000003E-2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.38251000000000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.38535000000000003</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.68015999999999999</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5.008E-2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.17560999999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.38239000000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.68018000000000001</v>
-      </c>
-      <c r="F6">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5.008E-2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.17562</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.38241000000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.38523000000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.68001</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5.008E-2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.17562</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.38241000000000003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.38521</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.68006</v>
-      </c>
-      <c r="F8">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5.008E-2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.17562</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.38246999999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.38524999999999998</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.68001</v>
-      </c>
-      <c r="F9">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5.0070000000000003E-2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.17557</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.38249</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.38529999999999998</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.67986000000000002</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4.9079999999999999E-2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.17413999999999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.39463999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.39795999999999998</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.67474999999999996</v>
-      </c>
-      <c r="F11">
-        <v>199</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4.3310000000000001E-2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.16725999999999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.36954999999999999</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.37286999999999998</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.58591000000000004</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>4.335E-2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.16735</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.36884</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.37222</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.58660999999999996</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4.3450000000000003E-2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.16753999999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.36741000000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.37089</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.58792</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>4.3470000000000002E-2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.16757</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.36703999999999998</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.37058000000000002</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.58811000000000002</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>4.3479999999999998E-2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.16758000000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.36697000000000002</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.37048999999999999</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.58828000000000003</v>
-      </c>
-      <c r="F18">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>4.3490000000000001E-2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.16758999999999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.36687999999999998</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.37040000000000001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.58833999999999997</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4.3490000000000001E-2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.16758999999999999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.36686999999999997</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.37037999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.58860000000000001</v>
-      </c>
-      <c r="F20">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>4.3490000000000001E-2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.1676</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.36686000000000002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.37039</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.58865999999999996</v>
-      </c>
-      <c r="F21">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>4.3490000000000001E-2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.1676</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.36686999999999997</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.37035000000000001</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.58855999999999997</v>
-      </c>
-      <c r="F22">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>4.3659999999999997E-2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.16803999999999999</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.36430000000000001</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.36767</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.59438999999999997</v>
-      </c>
-      <c r="F23">
-        <v>199</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
-    <sortCondition ref="G2:G21"/>
-    <sortCondition ref="F2:F21"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6838D4C6-CCEB-401B-A7FA-4AB81D104128}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -12586,12 +12056,543 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863D7C3-7A4F-4420-AEEB-0842CB319AF9}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4.9840000000000002E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.38518000000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.38793</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.67810999999999999</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.9959999999999997E-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.17544999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.38390000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.38663999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.67857999999999996</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5.006E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.17555999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.38257999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.38541999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.68013000000000001</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5.0070000000000003E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.38251000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.38535000000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.68015999999999999</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5.008E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.17560999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.38239000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.68018000000000001</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5.008E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.17562</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.38241000000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.38523000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.68001</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5.008E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.17562</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.38241000000000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.38521</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.68006</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5.008E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.17562</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.38246999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.38524999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.68001</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5.0070000000000003E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.17557</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.38249</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.67986000000000002</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4.9079999999999999E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.17413999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.39463999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.39795999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.67474999999999996</v>
+      </c>
+      <c r="F11">
+        <v>199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4.3310000000000001E-2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.16725999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.36954999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.37286999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.58591000000000004</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4.335E-2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.16735</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.36884</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.37222</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.58660999999999996</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>4.3450000000000003E-2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.16753999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.36741000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.37089</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.58792</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>4.3470000000000002E-2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.16757</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.36703999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.37058000000000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.58811000000000002</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4.3479999999999998E-2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.16758000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.36697000000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.37048999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.58828000000000003</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4.3490000000000001E-2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.16758999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.36687999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.58833999999999997</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4.3490000000000001E-2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.16758999999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.36686999999999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.37037999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>4.3490000000000001E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1676</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.36686000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.37039</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.58865999999999996</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4.3490000000000001E-2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.1676</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.36686999999999997</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.37035000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.58855999999999997</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4.3659999999999997E-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.16803999999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.36767</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.59438999999999997</v>
+      </c>
+      <c r="F23">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+    <sortCondition ref="G2:G21"/>
+    <sortCondition ref="F2:F21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AD0B05-F5D6-4F3F-B04A-A58B97CBA7BE}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/results_corelation_graphs.xlsx
+++ b/results/results_corelation_graphs.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D69F67-D1BA-4C0A-A23B-259466CB1FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C486F-C34D-4C96-82E2-789C3D3D2526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
     <sheet name="SVR" sheetId="1" r:id="rId2"/>
     <sheet name="NN" sheetId="3" r:id="rId3"/>
+    <sheet name="NNtogether" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="NN_both_corelation_results" localSheetId="3">NNtogether!$A$1:$H$11</definedName>
     <definedName name="NN_results" localSheetId="2">NN!$A$1:$G$23</definedName>
     <definedName name="RF_corelation_results" localSheetId="0">RF!$P$18:$V$38</definedName>
     <definedName name="RF_results" localSheetId="0">RF!$A$1:$G$23</definedName>
@@ -25,7 +27,6 @@
     <definedName name="SVR_results" localSheetId="1">SVR!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,21 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{718F89DD-6C63-45F1-A192-2675A207CAED}" name="NN_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{6D214C46-E7C5-4088-B7DE-32C89D7BEA81}" name="NN_both_corelation_results" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_both_corelation_results.csv" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{718F89DD-6C63-45F1-A192-2675A207CAED}" name="NN_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -56,7 +71,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{E7DBCAD7-E70A-4158-A710-66C5946E5276}" name="RF_corelation_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="3" xr16:uid="{E7DBCAD7-E70A-4158-A710-66C5946E5276}" name="RF_corelation_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_corelation_results.csv" tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -69,7 +84,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -82,7 +97,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{1E7E4CC1-12AC-435F-9B7C-9AD7728B7A72}" name="SVR_corelation_results1" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="5" xr16:uid="{1E7E4CC1-12AC-435F-9B7C-9AD7728B7A72}" name="SVR_corelation_results1" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\SVR_corelation_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -95,7 +110,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="6" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\SVR_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -112,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="11">
   <si>
     <t>MSE</t>
   </si>
@@ -139,6 +154,12 @@
   </si>
   <si>
     <t>arousal</t>
+  </si>
+  <si>
+    <t>MXE arousal</t>
+  </si>
+  <si>
+    <t>MXE valence</t>
   </si>
 </sst>
 </file>
@@ -6457,6 +6478,1421 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>NN both</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.3839999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.82E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5669999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0889999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.092E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1729999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8910000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6580000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5379999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17957000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18179000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17907999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30543999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38051000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34523999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33604000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36934</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39978000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36281000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28732000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30675999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28816999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34794999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34873999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34761999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40100999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36365999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28860999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1197365199"/>
+        <c:axId val="1197368527"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NNtogether!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>noFeat</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="plus"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NNtogether!$G$2:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>199</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NNtogether!$G$2:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>199</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-A827-406A-BC57-76313E9067AC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38029000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50073999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54732999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49002000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56315000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48316999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42397000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50666999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE arousal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16714000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14455000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13328999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19053999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22095999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17191000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6540000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A827-406A-BC57-76313E9067AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1747938416"/>
+        <c:axId val="1747916784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1197365199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197368527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197368527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197365199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1747916784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747938416"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1747938416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1747916784"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6697,6 +8133,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -9303,6 +10779,527 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10056,24 +12053,69 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243052</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>126125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217956</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2671CC0B-95E3-41E5-9E8A-D8D39B3BBAF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_corelation_results" connectionId="2" xr16:uid="{2958A287-3020-41A0-B009-62E156379B8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_corelation_results" connectionId="3" xr16:uid="{2958A287-3020-41A0-B009-62E156379B8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="3" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="4" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="5" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="6" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_corelation_results_1" connectionId="4" xr16:uid="{01E9DD8F-D4F6-4B6D-8FB8-15917133C0FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_corelation_results_1" connectionId="5" xr16:uid="{01E9DD8F-D4F6-4B6D-8FB8-15917133C0FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="1" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="2" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_both_corelation_results" connectionId="1" xr16:uid="{AEE9310E-DF7E-4C53-B062-490D1B7549F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11515,6 +13557,292 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6838D4C6-CCEB-401B-A7FA-4AB81D104128}">
   <dimension ref="A1:G23"/>
@@ -12591,8 +14919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AD0B05-F5D6-4F3F-B04A-A58B97CBA7BE}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13121,4 +15449,280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D208D1-5CDC-44CB-A713-892CECBEC3AB}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.3839999999999999E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.18673999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.30543999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.30675999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.14742</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.82E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.17496999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.38051000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.38238</v>
+      </c>
+      <c r="E3">
+        <v>0.38029000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.16714000000000001</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.5669999999999997E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.18908</v>
+      </c>
+      <c r="C4">
+        <v>0.28734999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.28816999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.50073999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.17923</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.0889999999999998E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.1799</v>
+      </c>
+      <c r="C5">
+        <v>0.34345999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.34794999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.54732999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.14455000000000001</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.092E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.17957000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.34523999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.34873999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.49002000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.13328999999999999</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.1729999999999998E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.18179000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.33604000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.34761999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.56315000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.19053999999999999</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.8910000000000002E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.17612</v>
+      </c>
+      <c r="C8">
+        <v>0.36934</v>
+      </c>
+      <c r="D8">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.48316999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.22095999999999999</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.6580000000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.39978000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.40100999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.42397000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.12778</v>
+      </c>
+      <c r="G9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.17907999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.36281000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.36365999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.48524</v>
+      </c>
+      <c r="F10">
+        <v>0.17191000000000001</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.5379999999999999E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.17881</v>
+      </c>
+      <c r="C11">
+        <v>0.28732000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.28860999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.50666999999999995</v>
+      </c>
+      <c r="F11">
+        <v>8.6540000000000006E-2</v>
+      </c>
+      <c r="G11">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/results_corelation_graphs.xlsx
+++ b/results/results_corelation_graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C486F-C34D-4C96-82E2-789C3D3D2526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671BFB70-BD30-44DC-9DC6-C664808F043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
@@ -6593,25 +6593,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>NNtogether!$G$2:$G$11</c:f>
@@ -6736,25 +6717,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>NNtogether!$G$2:$G$11</c:f>
@@ -6879,25 +6841,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>NNtogether!$G$2:$G$11</c:f>
@@ -7020,25 +6963,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>NNtogether!$G$2:$G$11</c:f>
@@ -7327,25 +7251,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>NNtogether!$G$2:$G$11</c:f>
@@ -15456,7 +15361,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/results_corelation_graphs.xlsx
+++ b/results/results_corelation_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671BFB70-BD30-44DC-9DC6-C664808F043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3791D9-ACAB-4876-AF83-3DF46DE2924D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="NN_both_corelation_results" localSheetId="3">NNtogether!$A$1:$H$11</definedName>
+    <definedName name="NN_both_corelation_results_1" localSheetId="3">NNtogether!$E$17:$K$27</definedName>
+    <definedName name="NN_corelation_results" localSheetId="2">NN!$O$4:$U$24</definedName>
     <definedName name="NN_results" localSheetId="2">NN!$A$1:$G$23</definedName>
     <definedName name="RF_corelation_results" localSheetId="0">RF!$P$18:$V$38</definedName>
     <definedName name="RF_results" localSheetId="0">RF!$A$1:$G$23</definedName>
@@ -58,7 +60,33 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{718F89DD-6C63-45F1-A192-2675A207CAED}" name="NN_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{C29E408C-C531-450E-B789-6228D99EA08E}" name="NN_both_corelation_results1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_both_corelation_results.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{602C5A7F-5ADA-4437-A4E3-BE328BB2CA9F}" name="NN_corelation_results" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_corelation_results.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{718F89DD-6C63-45F1-A192-2675A207CAED}" name="NN_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -71,7 +99,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{E7DBCAD7-E70A-4158-A710-66C5946E5276}" name="RF_corelation_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="5" xr16:uid="{E7DBCAD7-E70A-4158-A710-66C5946E5276}" name="RF_corelation_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_corelation_results.csv" tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -84,7 +112,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="6" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -97,7 +125,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{1E7E4CC1-12AC-435F-9B7C-9AD7728B7A72}" name="SVR_corelation_results1" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="7" xr16:uid="{1E7E4CC1-12AC-435F-9B7C-9AD7728B7A72}" name="SVR_corelation_results1" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\SVR_corelation_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -110,7 +138,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="8" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\SVR_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -179,12 +207,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,9 +233,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4540,34 +4577,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.7470000000000006E-2</c:v>
+                  <c:v>5.4679999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2300000000000001E-2</c:v>
+                  <c:v>5.0509999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5730000000000002E-2</c:v>
+                  <c:v>4.8030000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5939999999999997E-2</c:v>
+                  <c:v>4.7539999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4870000000000002E-2</c:v>
+                  <c:v>4.8419999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3780000000000001E-2</c:v>
+                  <c:v>5.1560000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6180000000000001E-2</c:v>
+                  <c:v>5.1319999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1189999999999999E-2</c:v>
+                  <c:v>5.1040000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.135E-2</c:v>
+                  <c:v>5.008E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.132E-2</c:v>
+                  <c:v>4.6829999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4664,34 +4701,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24439</c:v>
+                  <c:v>0.19308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19836000000000001</c:v>
+                  <c:v>0.18226000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18726000000000001</c:v>
+                  <c:v>0.17621000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18715000000000001</c:v>
+                  <c:v>0.17699000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18228</c:v>
+                  <c:v>0.17965999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18429999999999999</c:v>
+                  <c:v>0.18437000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18459</c:v>
+                  <c:v>0.18554000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17541999999999999</c:v>
+                  <c:v>0.18323999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1792</c:v>
+                  <c:v>0.18226000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18085000000000001</c:v>
+                  <c:v>0.17391999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4788,34 +4825,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-6.1199999999999996E-3</c:v>
+                  <c:v>0.3075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28333000000000003</c:v>
+                  <c:v>0.36032999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35897000000000001</c:v>
+                  <c:v>0.39169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35658000000000001</c:v>
+                  <c:v>0.39800999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36881999999999998</c:v>
+                  <c:v>0.38682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38139000000000001</c:v>
+                  <c:v>0.34709000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35376999999999997</c:v>
+                  <c:v>0.35003000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41120000000000001</c:v>
+                  <c:v>0.35369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40934999999999999</c:v>
+                  <c:v>0.36576999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29461999999999999</c:v>
+                  <c:v>0.40694999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4910,34 +4947,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-3.63E-3</c:v>
+                  <c:v>0.30770999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28952</c:v>
+                  <c:v>0.36301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36323</c:v>
+                  <c:v>0.39171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35837999999999998</c:v>
+                  <c:v>0.39810000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37143999999999999</c:v>
+                  <c:v>0.38682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38213000000000003</c:v>
+                  <c:v>0.34844000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3548</c:v>
+                  <c:v>0.36501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41343999999999997</c:v>
+                  <c:v>0.35376000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40948000000000001</c:v>
+                  <c:v>0.36582999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30925999999999998</c:v>
+                  <c:v>0.40711000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5048,34 +5085,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.73894000000000004</c:v>
+                  <c:v>0.79722999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88715999999999995</c:v>
+                  <c:v>0.72843999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84460000000000002</c:v>
+                  <c:v>0.74182999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88049999999999995</c:v>
+                  <c:v>0.70233000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0948199999999999</c:v>
+                  <c:v>0.64285000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88373999999999997</c:v>
+                  <c:v>0.78256999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84804000000000002</c:v>
+                  <c:v>0.65742999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73533000000000004</c:v>
+                  <c:v>0.69203999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70591999999999999</c:v>
+                  <c:v>0.66039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.75156</c:v>
+                  <c:v>0.65547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,34 +5627,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.9840000000000002E-2</c:v>
+                  <c:v>4.206E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3450000000000003E-2</c:v>
+                  <c:v>4.2419999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3130000000000002E-2</c:v>
+                  <c:v>4.3810000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6739999999999997E-2</c:v>
+                  <c:v>4.0980000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3700000000000003E-2</c:v>
+                  <c:v>3.8600000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5609999999999998E-2</c:v>
+                  <c:v>4.3020000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1950000000000001E-2</c:v>
+                  <c:v>3.9239999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.446E-2</c:v>
+                  <c:v>3.9370000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5699999999999998E-2</c:v>
+                  <c:v>4.0230000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9940000000000003E-2</c:v>
+                  <c:v>4.1790000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5714,34 +5751,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.17743999999999999</c:v>
+                  <c:v>0.16461999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16930000000000001</c:v>
+                  <c:v>0.16506999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16664999999999999</c:v>
+                  <c:v>0.16741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17407</c:v>
+                  <c:v>0.16292000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16958999999999999</c:v>
+                  <c:v>0.15620999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16725000000000001</c:v>
+                  <c:v>0.16614000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16686999999999999</c:v>
+                  <c:v>0.15590999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17099</c:v>
+                  <c:v>0.15803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17238999999999999</c:v>
+                  <c:v>0.15873999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16317999999999999</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5838,34 +5875,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27417999999999998</c:v>
+                  <c:v>0.33463999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36728</c:v>
+                  <c:v>0.32901999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37191000000000002</c:v>
+                  <c:v>0.30701000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31927</c:v>
+                  <c:v>0.35181000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36364999999999997</c:v>
+                  <c:v>0.38939000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33581</c:v>
+                  <c:v>0.31941999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38907000000000003</c:v>
+                  <c:v>0.37934000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35249000000000003</c:v>
+                  <c:v>0.37713999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33440999999999999</c:v>
+                  <c:v>0.36357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41837999999999997</c:v>
+                  <c:v>0.33896999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5960,34 +5997,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27590999999999999</c:v>
+                  <c:v>0.33465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36728</c:v>
+                  <c:v>0.32949000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37224000000000002</c:v>
+                  <c:v>0.30719000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31928000000000001</c:v>
+                  <c:v>0.35804999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36487999999999998</c:v>
+                  <c:v>0.38991999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33829999999999999</c:v>
+                  <c:v>0.33008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38929000000000002</c:v>
+                  <c:v>0.38029000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35643000000000002</c:v>
+                  <c:v>0.38596000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33839000000000002</c:v>
+                  <c:v>0.36359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42076000000000002</c:v>
+                  <c:v>0.34645999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6098,34 +6135,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.70250999999999997</c:v>
+                  <c:v>0.68093000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63343000000000005</c:v>
+                  <c:v>0.59438999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53046000000000004</c:v>
+                  <c:v>0.62802000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64698999999999995</c:v>
+                  <c:v>0.60326000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70545999999999998</c:v>
+                  <c:v>0.58331999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80456000000000005</c:v>
+                  <c:v>0.65778000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52829999999999999</c:v>
+                  <c:v>0.64949999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57084999999999997</c:v>
+                  <c:v>0.56869000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67586000000000002</c:v>
+                  <c:v>0.61548000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53510000000000002</c:v>
+                  <c:v>0.60085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6636,37 +6673,37 @@
             <c:numRef>
               <c:f>NNtogether!$A$2:$A$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.3839999999999999E-2</c:v>
+                  <c:v>5.1749999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.82E-2</c:v>
+                  <c:v>5.6800000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5669999999999997E-2</c:v>
+                  <c:v>5.271E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0889999999999998E-2</c:v>
+                  <c:v>5.126E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.092E-2</c:v>
+                  <c:v>5.289E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1729999999999998E-2</c:v>
+                  <c:v>4.895E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8910000000000002E-2</c:v>
+                  <c:v>4.6390000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6580000000000003E-2</c:v>
+                  <c:v>4.5949999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9599999999999998E-2</c:v>
+                  <c:v>4.9149999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5379999999999999E-2</c:v>
+                  <c:v>4.9230000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6760,37 +6797,37 @@
             <c:numRef>
               <c:f>NNtogether!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.18673999999999999</c:v>
+                  <c:v>0.18437000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17496999999999999</c:v>
+                  <c:v>0.19008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18908</c:v>
+                  <c:v>0.18146000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1799</c:v>
+                  <c:v>0.18129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17957000000000001</c:v>
+                  <c:v>0.18296000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18179000000000001</c:v>
+                  <c:v>0.17818999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17612</c:v>
+                  <c:v>0.17211000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17119999999999999</c:v>
+                  <c:v>0.17227000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17907999999999999</c:v>
+                  <c:v>0.17696000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17881</c:v>
+                  <c:v>0.17605999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6884,37 +6921,37 @@
             <c:numRef>
               <c:f>NNtogether!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.30543999999999999</c:v>
+                  <c:v>0.33334000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38051000000000001</c:v>
+                  <c:v>0.27146999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28734999999999999</c:v>
+                  <c:v>0.32462999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34345999999999999</c:v>
+                  <c:v>0.34048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34523999999999999</c:v>
+                  <c:v>0.31896999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33604000000000001</c:v>
+                  <c:v>0.36821999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36934</c:v>
+                  <c:v>0.40184999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39978000000000002</c:v>
+                  <c:v>0.40582000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36281000000000002</c:v>
+                  <c:v>0.36363000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28732000000000002</c:v>
+                  <c:v>0.36527999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7006,37 +7043,37 @@
             <c:numRef>
               <c:f>NNtogether!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.30675999999999998</c:v>
+                  <c:v>0.33561000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38238</c:v>
+                  <c:v>0.27851999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28816999999999998</c:v>
+                  <c:v>0.32595000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34794999999999998</c:v>
+                  <c:v>0.34089000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34873999999999999</c:v>
+                  <c:v>0.32606000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34761999999999998</c:v>
+                  <c:v>0.36973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37030000000000002</c:v>
+                  <c:v>0.40472999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40100999999999998</c:v>
+                  <c:v>0.40795999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36365999999999998</c:v>
+                  <c:v>0.36751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28860999999999998</c:v>
+                  <c:v>0.36608000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7294,37 +7331,37 @@
             <c:numRef>
               <c:f>NNtogether!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45650000000000002</c:v>
+                  <c:v>0.42565999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38029000000000002</c:v>
+                  <c:v>0.54759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50073999999999996</c:v>
+                  <c:v>0.50556000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54732999999999998</c:v>
+                  <c:v>0.38982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49002000000000001</c:v>
+                  <c:v>0.50566999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56315000000000004</c:v>
+                  <c:v>0.47212999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48316999999999999</c:v>
+                  <c:v>0.45063999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42397000000000001</c:v>
+                  <c:v>0.38902999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48524</c:v>
+                  <c:v>0.44313000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50666999999999995</c:v>
+                  <c:v>0.39439999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7418,37 +7455,37 @@
             <c:numRef>
               <c:f>NNtogether!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14742</c:v>
+                  <c:v>0.13947999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16714000000000001</c:v>
+                  <c:v>0.12236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17923</c:v>
+                  <c:v>0.15156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14455000000000001</c:v>
+                  <c:v>0.20352999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13328999999999999</c:v>
+                  <c:v>0.16531999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19053999999999999</c:v>
+                  <c:v>0.16802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22095999999999999</c:v>
+                  <c:v>0.13144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12778</c:v>
+                  <c:v>0.10834000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17191000000000001</c:v>
+                  <c:v>0.1181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6540000000000006E-2</c:v>
+                  <c:v>8.8800000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7583,7 +7620,7 @@
         <c:axId val="1197368527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.43000000000000005"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7615,7 +7652,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7660,10 +7697,11 @@
         <c:axId val="1747916784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7716,6 +7754,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1747916784"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -12000,26 +12039,34 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_corelation_results" connectionId="3" xr16:uid="{2958A287-3020-41A0-B009-62E156379B8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_corelation_results" connectionId="5" xr16:uid="{2958A287-3020-41A0-B009-62E156379B8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="4" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="6" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="6" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="8" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_corelation_results_1" connectionId="5" xr16:uid="{01E9DD8F-D4F6-4B6D-8FB8-15917133C0FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_corelation_results_1" connectionId="7" xr16:uid="{01E9DD8F-D4F6-4B6D-8FB8-15917133C0FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="2" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_corelation_results" connectionId="3" xr16:uid="{6905BC36-71C0-4A26-927E-3B89C3063CC6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="4" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_both_corelation_results_1" connectionId="2" xr16:uid="{44704F88-37D1-4E8F-96B4-7BA8979B3246}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_both_corelation_results" connectionId="1" xr16:uid="{AEE9310E-DF7E-4C53-B062-490D1B7549F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -13750,10 +13797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6838D4C6-CCEB-401B-A7FA-4AB81D104128}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13997,25 +14044,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>4.3880000000000002E-2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.16550999999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>0.45841999999999999</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.46068999999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>0.66063000000000005</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>199</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14234,25 +14281,25 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>3.8859999999999999E-2</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>0.15773999999999999</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>0.43468000000000001</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>0.43734000000000001</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>0.57847999999999999</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>80</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14278,6 +14325,9 @@
       <c r="G23" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P19:V38">
@@ -14291,10 +14341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863D7C3-7A4F-4420-AEEB-0842CB319AF9}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14535,25 +14585,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>4.9079999999999999E-2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.17413999999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>0.39463999999999999</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.39795999999999998</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>0.67474999999999996</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>199</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14581,25 +14631,25 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>4.3310000000000001E-2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>0.16725999999999999</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>0.36954999999999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.37286999999999998</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.58591000000000004</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14809,6 +14859,9 @@
       <c r="G23" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
@@ -14822,10 +14875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AD0B05-F5D6-4F3F-B04A-A58B97CBA7BE}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14833,8 +14886,9 @@
     <col min="1" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -14865,19 +14919,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8.7470000000000006E-2</v>
+        <v>5.4679999999999999E-2</v>
       </c>
       <c r="B2">
-        <v>0.24439</v>
+        <v>0.19308</v>
       </c>
       <c r="C2">
-        <v>-6.1199999999999996E-3</v>
+        <v>0.3075</v>
       </c>
       <c r="D2">
-        <v>-3.63E-3</v>
+        <v>0.30770999999999998</v>
       </c>
       <c r="E2">
-        <v>0.73894000000000004</v>
+        <v>0.79722999999999999</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -14888,19 +14942,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6.2300000000000001E-2</v>
+        <v>5.0509999999999999E-2</v>
       </c>
       <c r="B3">
-        <v>0.19836000000000001</v>
+        <v>0.18226000000000001</v>
       </c>
       <c r="C3">
-        <v>0.28333000000000003</v>
+        <v>0.36032999999999998</v>
       </c>
       <c r="D3">
-        <v>0.28952</v>
+        <v>0.36301</v>
       </c>
       <c r="E3">
-        <v>0.88715999999999995</v>
+        <v>0.72843999999999998</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -14911,19 +14965,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5.5730000000000002E-2</v>
+        <v>4.8030000000000003E-2</v>
       </c>
       <c r="B4">
-        <v>0.18726000000000001</v>
+        <v>0.17621000000000001</v>
       </c>
       <c r="C4">
-        <v>0.35897000000000001</v>
+        <v>0.39169999999999999</v>
       </c>
       <c r="D4">
-        <v>0.36323</v>
+        <v>0.39171</v>
       </c>
       <c r="E4">
-        <v>0.84460000000000002</v>
+        <v>0.74182999999999999</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -14934,19 +14988,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5.5939999999999997E-2</v>
+        <v>4.7539999999999999E-2</v>
       </c>
       <c r="B5">
-        <v>0.18715000000000001</v>
+        <v>0.17699000000000001</v>
       </c>
       <c r="C5">
-        <v>0.35658000000000001</v>
+        <v>0.39800999999999997</v>
       </c>
       <c r="D5">
-        <v>0.35837999999999998</v>
+        <v>0.39810000000000001</v>
       </c>
       <c r="E5">
-        <v>0.88049999999999995</v>
+        <v>0.70233000000000001</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -14957,19 +15011,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5.4870000000000002E-2</v>
+        <v>4.8419999999999998E-2</v>
       </c>
       <c r="B6">
-        <v>0.18228</v>
+        <v>0.17965999999999999</v>
       </c>
       <c r="C6">
-        <v>0.36881999999999998</v>
+        <v>0.38682</v>
       </c>
       <c r="D6">
-        <v>0.37143999999999999</v>
+        <v>0.38682</v>
       </c>
       <c r="E6">
-        <v>1.0948199999999999</v>
+        <v>0.64285000000000003</v>
       </c>
       <c r="F6">
         <v>40</v>
@@ -14980,19 +15034,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.3780000000000001E-2</v>
+        <v>5.1560000000000002E-2</v>
       </c>
       <c r="B7">
-        <v>0.18429999999999999</v>
+        <v>0.18437000000000001</v>
       </c>
       <c r="C7">
-        <v>0.38139000000000001</v>
+        <v>0.34709000000000001</v>
       </c>
       <c r="D7">
-        <v>0.38213000000000003</v>
+        <v>0.34844000000000003</v>
       </c>
       <c r="E7">
-        <v>0.88373999999999997</v>
+        <v>0.78256999999999999</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -15003,19 +15057,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.6180000000000001E-2</v>
+        <v>5.1319999999999998E-2</v>
       </c>
       <c r="B8">
-        <v>0.18459</v>
+        <v>0.18554000000000001</v>
       </c>
       <c r="C8">
-        <v>0.35376999999999997</v>
+        <v>0.35003000000000001</v>
       </c>
       <c r="D8">
-        <v>0.3548</v>
+        <v>0.36501</v>
       </c>
       <c r="E8">
-        <v>0.84804000000000002</v>
+        <v>0.65742999999999996</v>
       </c>
       <c r="F8">
         <v>60</v>
@@ -15025,43 +15079,43 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5.1189999999999999E-2</v>
-      </c>
-      <c r="B9">
-        <v>0.17541999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.41120000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.41343999999999997</v>
-      </c>
-      <c r="E9">
-        <v>0.73533000000000004</v>
-      </c>
-      <c r="F9">
+      <c r="A9" s="4">
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.18323999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.35369</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.35376000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.69203999999999999</v>
+      </c>
+      <c r="F9" s="4">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5.135E-2</v>
+        <v>5.008E-2</v>
       </c>
       <c r="B10">
-        <v>0.1792</v>
+        <v>0.18226000000000001</v>
       </c>
       <c r="C10">
-        <v>0.40934999999999999</v>
+        <v>0.36576999999999998</v>
       </c>
       <c r="D10">
-        <v>0.40948000000000001</v>
+        <v>0.36582999999999999</v>
       </c>
       <c r="E10">
-        <v>0.70591999999999999</v>
+        <v>0.66039999999999999</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -15071,25 +15125,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6.132E-2</v>
-      </c>
-      <c r="B11">
-        <v>0.18085000000000001</v>
-      </c>
-      <c r="C11">
-        <v>0.29461999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.30925999999999998</v>
-      </c>
-      <c r="E11">
-        <v>1.75156</v>
-      </c>
-      <c r="F11">
+      <c r="A11" s="2">
+        <v>4.6829999999999997E-2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.17391999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.40694999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.40711000000000003</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.65547</v>
+      </c>
+      <c r="F11" s="2">
         <v>199</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15118,19 +15172,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4.9840000000000002E-2</v>
+        <v>4.206E-2</v>
       </c>
       <c r="B14">
-        <v>0.17743999999999999</v>
+        <v>0.16461999999999999</v>
       </c>
       <c r="C14">
-        <v>0.27417999999999998</v>
+        <v>0.33463999999999999</v>
       </c>
       <c r="D14">
-        <v>0.27590999999999999</v>
+        <v>0.33465</v>
       </c>
       <c r="E14">
-        <v>0.70250999999999997</v>
+        <v>0.68093000000000004</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -15141,19 +15195,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.3450000000000003E-2</v>
+        <v>4.2419999999999999E-2</v>
       </c>
       <c r="B15">
-        <v>0.16930000000000001</v>
+        <v>0.16506999999999999</v>
       </c>
       <c r="C15">
-        <v>0.36728</v>
+        <v>0.32901999999999998</v>
       </c>
       <c r="D15">
-        <v>0.36728</v>
+        <v>0.32949000000000001</v>
       </c>
       <c r="E15">
-        <v>0.63343000000000005</v>
+        <v>0.59438999999999997</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -15164,19 +15218,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4.3130000000000002E-2</v>
+        <v>4.3810000000000002E-2</v>
       </c>
       <c r="B16">
-        <v>0.16664999999999999</v>
+        <v>0.16741</v>
       </c>
       <c r="C16">
-        <v>0.37191000000000002</v>
+        <v>0.30701000000000001</v>
       </c>
       <c r="D16">
-        <v>0.37224000000000002</v>
+        <v>0.30719000000000002</v>
       </c>
       <c r="E16">
-        <v>0.53046000000000004</v>
+        <v>0.62802000000000002</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -15185,21 +15239,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4.6739999999999997E-2</v>
+        <v>4.0980000000000003E-2</v>
       </c>
       <c r="B17">
-        <v>0.17407</v>
+        <v>0.16292000000000001</v>
       </c>
       <c r="C17">
-        <v>0.31927</v>
+        <v>0.35181000000000001</v>
       </c>
       <c r="D17">
-        <v>0.31928000000000001</v>
+        <v>0.35804999999999998</v>
       </c>
       <c r="E17">
-        <v>0.64698999999999995</v>
+        <v>0.60326000000000002</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -15208,44 +15262,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="B18">
-        <v>0.16958999999999999</v>
-      </c>
-      <c r="C18">
-        <v>0.36364999999999997</v>
-      </c>
-      <c r="D18">
-        <v>0.36487999999999998</v>
-      </c>
-      <c r="E18">
-        <v>0.70545999999999998</v>
-      </c>
-      <c r="F18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.15620999999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.38939000000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.38991999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.58331999999999995</v>
+      </c>
+      <c r="F18" s="2">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4.5609999999999998E-2</v>
+        <v>4.3020000000000003E-2</v>
       </c>
       <c r="B19">
-        <v>0.16725000000000001</v>
+        <v>0.16614000000000001</v>
       </c>
       <c r="C19">
-        <v>0.33581</v>
+        <v>0.31941999999999998</v>
       </c>
       <c r="D19">
-        <v>0.33829999999999999</v>
+        <v>0.33008999999999999</v>
       </c>
       <c r="E19">
-        <v>0.80456000000000005</v>
+        <v>0.65778000000000003</v>
       </c>
       <c r="F19">
         <v>50</v>
@@ -15254,21 +15309,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.1950000000000001E-2</v>
+        <v>3.9239999999999997E-2</v>
       </c>
       <c r="B20">
-        <v>0.16686999999999999</v>
+        <v>0.15590999999999999</v>
       </c>
       <c r="C20">
-        <v>0.38907000000000003</v>
+        <v>0.37934000000000001</v>
       </c>
       <c r="D20">
-        <v>0.38929000000000002</v>
+        <v>0.38029000000000002</v>
       </c>
       <c r="E20">
-        <v>0.52829999999999999</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="F20">
         <v>60</v>
@@ -15277,21 +15332,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4.446E-2</v>
+        <v>3.9370000000000002E-2</v>
       </c>
       <c r="B21">
-        <v>0.17099</v>
+        <v>0.15803</v>
       </c>
       <c r="C21">
-        <v>0.35249000000000003</v>
+        <v>0.37713999999999998</v>
       </c>
       <c r="D21">
-        <v>0.35643000000000002</v>
+        <v>0.38596000000000003</v>
       </c>
       <c r="E21">
-        <v>0.57084999999999997</v>
+        <v>0.56869000000000003</v>
       </c>
       <c r="F21">
         <v>70</v>
@@ -15300,21 +15355,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.5699999999999998E-2</v>
+        <v>4.0230000000000002E-2</v>
       </c>
       <c r="B22">
-        <v>0.17238999999999999</v>
+        <v>0.15873999999999999</v>
       </c>
       <c r="C22">
-        <v>0.33440999999999999</v>
+        <v>0.36357</v>
       </c>
       <c r="D22">
-        <v>0.33839000000000002</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="E22">
-        <v>0.67586000000000002</v>
+        <v>0.61548000000000003</v>
       </c>
       <c r="F22">
         <v>80</v>
@@ -15323,33 +15378,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3.9940000000000003E-2</v>
-      </c>
-      <c r="B23">
-        <v>0.16317999999999999</v>
-      </c>
-      <c r="C23">
-        <v>0.41837999999999997</v>
-      </c>
-      <c r="D23">
-        <v>0.42076000000000002</v>
-      </c>
-      <c r="E23">
-        <v>0.53510000000000002</v>
-      </c>
-      <c r="F23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>4.1790000000000001E-2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.33896999999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.34645999999999999</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.60085</v>
+      </c>
+      <c r="F23" s="4">
         <v>199</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R11:X30">
-    <sortCondition ref="X11:X30"/>
-    <sortCondition ref="W11:W30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O5:U24">
+    <sortCondition ref="U5:U24"/>
+    <sortCondition ref="T5:T24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15360,17 +15415,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D208D1-5CDC-44CB-A713-892CECBEC3AB}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="5" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -15397,230 +15452,230 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5.3839999999999999E-2</v>
-      </c>
-      <c r="B2">
-        <v>0.18673999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.30543999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.30675999999999998</v>
-      </c>
-      <c r="E2">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="F2">
-        <v>0.14742</v>
+      <c r="A2" s="1">
+        <v>5.1749999999999997E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.18437000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.33334000000000003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.33561000000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.42565999999999998</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.13947999999999999</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4.82E-2</v>
-      </c>
-      <c r="B3">
-        <v>0.17496999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.38051000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.38238</v>
-      </c>
-      <c r="E3">
-        <v>0.38029000000000002</v>
-      </c>
-      <c r="F3">
-        <v>0.16714000000000001</v>
+      <c r="A3" s="1">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.19008</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.27146999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.27851999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.12236</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5.5669999999999997E-2</v>
-      </c>
-      <c r="B4">
-        <v>0.18908</v>
-      </c>
-      <c r="C4">
-        <v>0.28734999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.28816999999999998</v>
-      </c>
-      <c r="E4">
-        <v>0.50073999999999996</v>
-      </c>
-      <c r="F4">
-        <v>0.17923</v>
+      <c r="A4" s="1">
+        <v>5.271E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.18146000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.32462999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.32595000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.50556000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.15156</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5.0889999999999998E-2</v>
-      </c>
-      <c r="B5">
-        <v>0.1799</v>
-      </c>
-      <c r="C5">
-        <v>0.34345999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.34794999999999998</v>
-      </c>
-      <c r="E5">
-        <v>0.54732999999999998</v>
-      </c>
-      <c r="F5">
-        <v>0.14455000000000001</v>
+      <c r="A5" s="1">
+        <v>5.126E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.34048</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.34089000000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.38982</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.20352999999999999</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5.092E-2</v>
-      </c>
-      <c r="B6">
-        <v>0.17957000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.34523999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.34873999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.49002000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.13328999999999999</v>
+      <c r="A6" s="1">
+        <v>5.289E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.18296000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.31896999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.32606000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.50566999999999995</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.16531999999999999</v>
       </c>
       <c r="G6">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5.1729999999999998E-2</v>
-      </c>
-      <c r="B7">
-        <v>0.18179000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.33604000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.34761999999999998</v>
-      </c>
-      <c r="E7">
-        <v>0.56315000000000004</v>
-      </c>
-      <c r="F7">
-        <v>0.19053999999999999</v>
+      <c r="A7" s="1">
+        <v>4.895E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.17818999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.36821999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.36973</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.47212999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.16802</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4.8910000000000002E-2</v>
-      </c>
-      <c r="B8">
-        <v>0.17612</v>
-      </c>
-      <c r="C8">
-        <v>0.36934</v>
-      </c>
-      <c r="D8">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="E8">
-        <v>0.48316999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.22095999999999999</v>
+      <c r="A8" s="1">
+        <v>4.6390000000000001E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.17211000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.40184999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.40472999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.45063999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.13144</v>
       </c>
       <c r="G8">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.6580000000000003E-2</v>
-      </c>
-      <c r="B9">
-        <v>0.17119999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.39978000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.40100999999999998</v>
-      </c>
-      <c r="E9">
-        <v>0.42397000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.12778</v>
-      </c>
-      <c r="G9">
+      <c r="A9" s="3">
+        <v>4.5949999999999998E-2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.17227000000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.40582000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.40795999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.38902999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.10834000000000001</v>
+      </c>
+      <c r="G9" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4.9599999999999998E-2</v>
-      </c>
-      <c r="B10">
-        <v>0.17907999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.36281000000000002</v>
-      </c>
-      <c r="D10">
-        <v>0.36365999999999998</v>
-      </c>
-      <c r="E10">
-        <v>0.48524</v>
-      </c>
-      <c r="F10">
-        <v>0.17191000000000001</v>
+      <c r="A10" s="1">
+        <v>4.9149999999999999E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.17696000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.36363000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.36751</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.44313000000000002</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1181</v>
       </c>
       <c r="G10">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5.5379999999999999E-2</v>
-      </c>
-      <c r="B11">
-        <v>0.17881</v>
-      </c>
-      <c r="C11">
-        <v>0.28732000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.28860999999999998</v>
-      </c>
-      <c r="E11">
-        <v>0.50666999999999995</v>
-      </c>
-      <c r="F11">
-        <v>8.6540000000000006E-2</v>
+      <c r="A11" s="1">
+        <v>4.9230000000000003E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.17605999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.36527999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.36608000000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.39439999999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="G11">
         <v>199</v>
